--- a/GestorReceitas/Dezembro/Lanche.xlsx
+++ b/GestorReceitas/Dezembro/Lanche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Dezembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D128E4C1-9A8A-4977-89EC-3AA20DF732AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021512B4-A84F-4197-BA41-A8BD6DE62F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lanche!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,6 +2584,9 @@
       <c r="C131" s="1">
         <v>306677741</v>
       </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
